--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7286b9d7ec8af54a/Proyectos/armoniasimple/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7286b9d7ec8af54a/Proyectos/ArmoniaShop-Mila/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{F5D12DB3-C7FE-456B-8358-C45036D5C218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D4303F-0E34-410F-A6E0-42EB51619C8C}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F5D12DB3-C7FE-456B-8358-C45036D5C218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36009134-D6FD-4E76-92CA-A08DCF6713B2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61B29878-444D-407E-B9CF-CAB5D668DAC8}"/>
   </bookViews>
@@ -141,81 +141,6 @@
     <t>Canastilla Desague</t>
   </si>
   <si>
-    <t>assets/img/BW/Adherible Inox.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Adherible Muro Verde.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Better Klin X-Pert Brillo Piso.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Canastilla Desague.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Canastilla Fregadero.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Cinema Cel HD.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Clip Sujeta Sabanas.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Cuchillo OxiFree.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Dental Novo.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Destapa Lavabo.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Dispensa Marciano.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Espejo Duo.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Esponja Mágica.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Mantel Toy Story.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/No Me Mires Vitral.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Popote Ecoklin.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Porta Cepillo.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Practi Eggies Figuras.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Press It.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Protecti Desagüe.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Protecti Ropa.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Quita Pelusa Tapicería.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Renova Sartenes.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Repuesto Mob.png</t>
-  </si>
-  <si>
-    <t>assets/img/BW/Vaso Stitch.png</t>
-  </si>
-  <si>
     <t>¡Renueva tus electrodomésticos y superficies con el Adherible Inox! Es fácil de instalar, fácil de limpiar y resistente al agua. PET adherible. 44 cm x 1 m.</t>
   </si>
   <si>
@@ -289,6 +214,81 @@
   </si>
   <si>
     <t>Hidrátate de una manera divertida y disfruta de la magia de Disney con el Vaso Stitch Betterware coleccionable. Cuenta con un hermoso diseño bi-tono de Stitch, capacidad de 700 ml y popote con anillo para evitar que se salga. Poliestireno y Polipropileno. Capacidad: 700 ml. D. 11 x 21 cm.</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Adherible Inox.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Adherible Muro Verde.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Better Klin X-Pert Brillo Piso.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Canastilla Desague.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Canastilla Fregadero.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Cinema Cel HD.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Clip Sujeta Sabanas.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Cuchillo OxiFree.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Dental Novo.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Destapa Lavabo.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Dispensa Marciano.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Espejo Duo.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Esponja Mágica.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Mantel Toy Story.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/No Me Mires Vitral.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Popote Ecoklin.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Porta Cepillo.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Practi Eggies Figuras.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Press It.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Protecti Desagüe.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Protecti Ropa.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Quita Pelusa Tapicería.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Renova Sartenes.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Repuesto Mob.png</t>
+  </si>
+  <si>
+    <t>src/assets/img/BW/Vaso Stitch.png</t>
   </si>
 </sst>
 </file>
@@ -335,9 +335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -670,7 +669,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,408 +681,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
         <v>97</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2">
-        <v>165</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="2">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1">
         <v>68</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2">
-        <v>112</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2">
-        <v>127</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="2">
-        <v>127</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="2">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="2">
-        <v>127</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="2">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="2">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="2">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>229</v>
+      </c>
+      <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="2">
-        <v>229</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>99</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>180</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>99</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
